--- a/example/25-09-10_Examples_Orest/25-09-10_Analysis_meeting_Orestest.xlsx
+++ b/example/25-09-10_Examples_Orest/25-09-10_Analysis_meeting_Orestest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sbszkudlarek/PycharmProjects/WBLBM/example/25-09-10_Examples_Orest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D364D9D-D478-BB46-BF1A-F9C58D51A63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D15268E-6308-BA4F-AC09-A5D1FC212335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{FFE0D964-7C1F-A948-BFDB-72FC16E72168}"/>
+    <workbookView xWindow="680" yWindow="2040" windowWidth="38400" windowHeight="21120" activeTab="8" xr2:uid="{FFE0D964-7C1F-A948-BFDB-72FC16E72168}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet1 (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="simulation" localSheetId="0">Sheet1!$A$1:$G$62</definedName>
@@ -58,7 +62,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{79D8A535-D2FB-C848-9317-4DB11E4219B0}" name="simulation1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/sbszkudlarek/PycharmProjects/WBLBM/example/tests/Bubble_rise_high_density_ratio/results/2025-09-10/15-45-07/simulation.log" comma="1" delimiter="=">
+    <textPr sourceFile="/Users/sbszkudlarek/PycharmProjects/WBLBM/example/tests/Bubble_rise_high_density_ratio/results/2025-09-10/15-45-07/simulation.log" comma="1" delimiter="=">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -72,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="330">
   <si>
     <t>Configuration saved to results/2025-09-10/15-51-50/config.json</t>
   </si>
@@ -939,6 +943,129 @@
   </si>
   <si>
     <t>Configuration saved to results/2025-09-10/15-45-07/config.json</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>saved</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>results/2025-09-16/11-33-31/config.json</t>
+  </si>
+  <si>
+    <t>Starting</t>
+  </si>
+  <si>
+    <t>LBM</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>steps...</t>
+  </si>
+  <si>
+    <t>Config</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>Grid:</t>
+  </si>
+  <si>
+    <t>(401</t>
+  </si>
+  <si>
+    <t>401)</t>
+  </si>
+  <si>
+    <t>Multiphase:</t>
+  </si>
+  <si>
+    <t>Wetting:</t>
+  </si>
+  <si>
+    <t>Force:</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>encountered</t>
+  </si>
+  <si>
+    <t>at</t>
+  </si>
+  <si>
+    <t>timestep</t>
+  </si>
+  <si>
+    <t>Stopping</t>
+  </si>
+  <si>
+    <t>simulation.</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>completed!</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>in:</t>
+  </si>
+  <si>
+    <t>results/2025-09-16/11-33-31</t>
+  </si>
+  <si>
+    <t>Visualizing</t>
+  </si>
+  <si>
+    <t>Saving</t>
+  </si>
+  <si>
+    <t>plots</t>
+  </si>
+  <si>
+    <t>to:</t>
+  </si>
+  <si>
+    <t>results/2025-09-16/11-33-31/plots</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>generating</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>timesteps.</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>tep</t>
   </si>
 </sst>
 </file>
@@ -1365,6 +1492,481 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1201492224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet9!$F$4:$F$69</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="66"/>
+                <c:pt idx="0">
+                  <c:v>1.0759999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9040000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6800000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2680000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7009999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0159999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.254E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.4390000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.5909999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7190000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.8320000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.934E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.0369999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1570000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.3070000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.4920000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7099999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.9550000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.2249999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5189999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.8510000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.2240000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6400000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0879999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.5470000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.9910000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3950000000000006E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.7420000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0024999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0226000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0338E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0352999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0257E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0052E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.7509999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3769999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.9519999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.5019999999999991E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.0420000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.5880000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.1539999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.7479999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.3759999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.0480000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.7679999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.5310000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.3410000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.1850000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.0660000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>4.9760000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.9069999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.8599999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.8349999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.8300000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.849E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.8979999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.9820000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.1070000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.2830000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.522E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.8399999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6.2560000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.8120000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.5469999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>8.5210000000000008E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9.9659999999999992E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-01C7-584C-AE07-D853740CEC93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1171008912"/>
+        <c:axId val="1567407952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1171008912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1567407952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1567407952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1171008912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3613,7 +4215,1178 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet6!$F$1:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>8.9300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.531E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.166E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9819999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.225E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4030000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5360000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6350000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7079999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.761E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7929999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8149999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8379999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.872E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9179999999999996E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2B9F-8D46-875B-2833048A47D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1594542480"/>
+        <c:axId val="1594283616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1594542480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594283616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1594283616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1594542480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet7!$F$1:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>8.9300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.531E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.166E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9819999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.225E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4030000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5360000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6350000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7079999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.761E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7929999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8149999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8379999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.872E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9179999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9760000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0379999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1609999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2269999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3070000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4010000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6249999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7410000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8479999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0470000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1409999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2300000000000003E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBA6-1A40-BA85-D37C4F86AB5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1568468448"/>
+        <c:axId val="1707945584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1568468448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1707945584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1707945584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1568468448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet8!$F$1:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>8.9300000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.531E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.166E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.64E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9819999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.225E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4030000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5360000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.6350000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.7079999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.761E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.7929999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8149999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8379999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.872E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.9179999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.9760000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.0379999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1609999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.2269999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.3070000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.4010000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.5100000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4.6249999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.7410000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8479999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.9500000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.0470000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1409999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2300000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3080000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3670000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3990000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4029999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.3800000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.3330000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.2659999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.182E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.0819999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.9659999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.836E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.7000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.5580000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>4.4190000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4.2859999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.1640000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.052E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.9509999999999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.8630000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.7859999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7190000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.6649999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1159-6546-80B2-AFE95DB0FBAB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1568163072"/>
+        <c:axId val="1568566448"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1568163072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1568566448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1568566448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1568163072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3853,6 +5626,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4369,7 +6262,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4885,7 +6778,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5401,7 +7294,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5917,7 +7810,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6433,7 +8326,2071 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6970,6 +10927,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B558F88C-9ACE-7A21-1ED1-8567A5D876D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C299A07B-757C-5476-8B25-F7E5374F5FFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7181,6 +11179,129 @@
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C78D8707-853C-E4F5-9987-80EBEC5ACF4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C735EC0F-18E9-8BE9-B2AB-F54436A3C3FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F1C264-1BD4-A017-9BC4-B671EF925C71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8305,6 +12426,1572 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CD3132-B41B-F443-9F96-9260C02B4B8E}">
+  <dimension ref="A1:K81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E2">
+        <v>100000</v>
+      </c>
+      <c r="F2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>306</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>0.8044</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>1.0759999999999999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>0.8044</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>1.9040000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>0.8044</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>2.6800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>0.8044</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>3.2680000000000001E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>0.8044</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>3.7009999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <v>0.8044</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>4.0159999999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>0.8044</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>4.254E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>0.8044</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>4.4390000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>0.8044</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>4.5909999999999996E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>0.8044</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>4.7190000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>0.8044</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>4.8320000000000004E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>0.8044</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>4.934E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>0.8044</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>5.0369999999999998E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>0.8044</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>5.1570000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>0.8044</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>5.3070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>0.8044</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19">
+        <v>5.4920000000000004E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>0.8044</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>5.7099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0.8044</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>5.9550000000000002E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>0.8044</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22">
+        <v>6.2249999999999996E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <v>0.8044</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>6.5189999999999996E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>0.8044</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>6.8510000000000003E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>0.8044</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>7.2240000000000004E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>0.8044</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26">
+        <v>7.6400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>0.8044</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>8.0879999999999997E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>0.8044</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>8.5470000000000008E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>0.8044</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>8.9910000000000007E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>0.8044</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>9.3950000000000006E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>0.8044</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>9.7420000000000007E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>0.8044</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>1.0024999999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <v>0.8044</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33">
+        <v>1.0226000000000001E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>0.8044</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>1.0338E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35">
+        <v>0.8044</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>1.0352999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <v>0.8044</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>1.0257E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>0.8044</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37">
+        <v>1.0052E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>0.8044</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38">
+        <v>9.7509999999999993E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39">
+        <v>0.8044</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39">
+        <v>9.3769999999999999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>0.8044</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>8.9519999999999999E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>0.8044</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <v>8.5019999999999991E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42">
+        <v>0.8044</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42">
+        <v>8.0420000000000005E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>0.8044</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43">
+        <v>7.5880000000000001E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>0.8044</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44">
+        <v>7.1539999999999998E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>137</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45">
+        <v>0.8044</v>
+      </c>
+      <c r="E45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <v>6.7479999999999997E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>0.8044</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46">
+        <v>6.3759999999999997E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>139</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>0.8044</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47">
+        <v>6.0480000000000004E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48">
+        <v>0.8044</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48">
+        <v>5.7679999999999997E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49">
+        <v>0.8044</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49">
+        <v>5.5310000000000003E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>0.8044</v>
+      </c>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50">
+        <v>5.3410000000000003E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>0.8044</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51">
+        <v>5.1850000000000004E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>0.8044</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52">
+        <v>5.0660000000000002E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>145</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53">
+        <v>0.8044</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53">
+        <v>4.9760000000000004E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>93</v>
+      </c>
+      <c r="B54" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54">
+        <v>0.8044</v>
+      </c>
+      <c r="E54" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54">
+        <v>4.9069999999999999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C55" t="s">
+        <v>95</v>
+      </c>
+      <c r="D55">
+        <v>0.8044</v>
+      </c>
+      <c r="E55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55">
+        <v>4.8599999999999997E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D56">
+        <v>0.8044</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56">
+        <v>4.8349999999999999E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>149</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57">
+        <v>0.8044</v>
+      </c>
+      <c r="E57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57">
+        <v>4.8300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58">
+        <v>0.8044</v>
+      </c>
+      <c r="E58" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58">
+        <v>4.849E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59" t="s">
+        <v>151</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59">
+        <v>0.8044</v>
+      </c>
+      <c r="E59" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59">
+        <v>4.8979999999999996E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B60" t="s">
+        <v>152</v>
+      </c>
+      <c r="C60" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60">
+        <v>0.8044</v>
+      </c>
+      <c r="E60" t="s">
+        <v>96</v>
+      </c>
+      <c r="F60">
+        <v>4.9820000000000003E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" t="s">
+        <v>153</v>
+      </c>
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61">
+        <v>0.8044</v>
+      </c>
+      <c r="E61" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61">
+        <v>5.1070000000000004E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62">
+        <v>0.8044</v>
+      </c>
+      <c r="E62" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62">
+        <v>5.2830000000000004E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>93</v>
+      </c>
+      <c r="B63" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63">
+        <v>0.8044</v>
+      </c>
+      <c r="E63" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63">
+        <v>5.522E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>93</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64">
+        <v>0.8044</v>
+      </c>
+      <c r="E64" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64">
+        <v>5.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" t="s">
+        <v>157</v>
+      </c>
+      <c r="C65" t="s">
+        <v>95</v>
+      </c>
+      <c r="D65">
+        <v>0.8044</v>
+      </c>
+      <c r="E65" t="s">
+        <v>96</v>
+      </c>
+      <c r="F65">
+        <v>6.2560000000000003E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B66" t="s">
+        <v>158</v>
+      </c>
+      <c r="C66" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66">
+        <v>0.8044</v>
+      </c>
+      <c r="E66" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66">
+        <v>6.8120000000000003E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>95</v>
+      </c>
+      <c r="D67">
+        <v>0.8044</v>
+      </c>
+      <c r="E67" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67">
+        <v>7.5469999999999999E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68">
+        <v>0.8044</v>
+      </c>
+      <c r="E68" t="s">
+        <v>96</v>
+      </c>
+      <c r="F68">
+        <v>8.5210000000000008E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>93</v>
+      </c>
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+      <c r="D69">
+        <v>0.8044</v>
+      </c>
+      <c r="E69" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69">
+        <v>9.9659999999999992E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" t="s">
+        <v>162</v>
+      </c>
+      <c r="C70" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70">
+        <v>0.8044</v>
+      </c>
+      <c r="E70" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70">
+        <v>1.2171E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+      <c r="D71">
+        <v>0.8044</v>
+      </c>
+      <c r="E71" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71">
+        <v>1.5720000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>164</v>
+      </c>
+      <c r="C72" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72">
+        <v>0.8044</v>
+      </c>
+      <c r="E72" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72">
+        <v>4.0231000000000003E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>307</v>
+      </c>
+      <c r="B73" t="s">
+        <v>308</v>
+      </c>
+      <c r="C73" t="s">
+        <v>309</v>
+      </c>
+      <c r="D73" t="s">
+        <v>310</v>
+      </c>
+      <c r="E73">
+        <v>69604</v>
+      </c>
+      <c r="F73" t="s">
+        <v>311</v>
+      </c>
+      <c r="G73" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>315</v>
+      </c>
+      <c r="B75" t="s">
+        <v>290</v>
+      </c>
+      <c r="C75" t="s">
+        <v>316</v>
+      </c>
+      <c r="D75" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>319</v>
+      </c>
+      <c r="B78" t="s">
+        <v>320</v>
+      </c>
+      <c r="C78" t="s">
+        <v>321</v>
+      </c>
+      <c r="D78" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>323</v>
+      </c>
+      <c r="B79" t="s">
+        <v>324</v>
+      </c>
+      <c r="C79" t="s">
+        <v>320</v>
+      </c>
+      <c r="D79" t="s">
+        <v>325</v>
+      </c>
+      <c r="E79" t="s">
+        <v>326</v>
+      </c>
+      <c r="F79">
+        <v>69</v>
+      </c>
+      <c r="G79" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>328</v>
+      </c>
+      <c r="B81" t="s">
+        <v>314</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB2315E2-FB69-C549-BDA3-E30391845487}">
   <dimension ref="A1:E29"/>
@@ -12542,7 +18229,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A08335D-EB1B-064D-972D-4E40928A070A}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:E39"/>
     </sheetView>
   </sheetViews>
@@ -13084,4 +18771,2052 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C38CE8-1162-9A47-A055-C5EFEC2026CC}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1">
+        <v>0.8044</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1">
+        <v>8.9300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>0.8044</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>1.531E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>0.8044</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>2.166E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>0.8044</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>0.8044</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>2.9819999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>0.8044</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>3.225E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>0.8044</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>3.4030000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>0.8044</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>3.5360000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <v>0.8044</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>3.6350000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>0.8044</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>3.7079999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>0.8044</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>3.761E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>0.8044</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>3.7929999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>0.8044</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>3.8149999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>0.8044</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>3.8379999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>0.8044</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>3.872E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>0.8044</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>3.9179999999999996E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4B3C91-DB19-E74E-86FE-B74456F9ED42}">
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1">
+        <v>0.8044</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1">
+        <v>8.9300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>0.8044</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>1.531E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>0.8044</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>2.166E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>0.8044</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>0.8044</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>2.9819999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>0.8044</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>3.225E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>0.8044</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>3.4030000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>0.8044</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>3.5360000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <v>0.8044</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>3.6350000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>0.8044</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>3.7079999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>0.8044</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>3.761E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>0.8044</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>3.7929999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>0.8044</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>3.8149999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>0.8044</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>3.8379999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>0.8044</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>3.872E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>0.8044</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>3.9179999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>0.8044</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>3.9760000000000004E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>0.8044</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>4.0379999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>0.8044</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>0.8044</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>4.1609999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0.8044</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>4.2269999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>0.8044</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22">
+        <v>4.3070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <v>0.8044</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>4.4010000000000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>0.8044</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>4.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>0.8044</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>4.6249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>0.8044</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26">
+        <v>4.7410000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>0.8044</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>4.8479999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>0.8044</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>4.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>0.8044</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>5.0470000000000003E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>0.8044</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>5.1409999999999997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>0.8044</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>5.2300000000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFDBA39E-4AAD-3A46-8908-CEBEEB384EAB}">
+  <dimension ref="A1:F53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G142" sqref="G141:G142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1">
+        <v>0.8044</v>
+      </c>
+      <c r="E1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1">
+        <v>8.9300000000000002E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>0.8044</v>
+      </c>
+      <c r="E2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>1.531E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3">
+        <v>0.8044</v>
+      </c>
+      <c r="E3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3">
+        <v>2.166E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4">
+        <v>0.8044</v>
+      </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>0.8044</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5">
+        <v>2.9819999999999998E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6">
+        <v>0.8044</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6">
+        <v>3.225E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>0.8044</v>
+      </c>
+      <c r="E7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7">
+        <v>3.4030000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8">
+        <v>0.8044</v>
+      </c>
+      <c r="E8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8">
+        <v>3.5360000000000001E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <v>0.8044</v>
+      </c>
+      <c r="E9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>3.6350000000000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10">
+        <v>0.8044</v>
+      </c>
+      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10">
+        <v>3.7079999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
+        <v>0.8044</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11">
+        <v>3.761E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12">
+        <v>0.8044</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12">
+        <v>3.7929999999999999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13">
+        <v>0.8044</v>
+      </c>
+      <c r="E13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13">
+        <v>3.8149999999999998E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14">
+        <v>0.8044</v>
+      </c>
+      <c r="E14" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14">
+        <v>3.8379999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15">
+        <v>0.8044</v>
+      </c>
+      <c r="E15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15">
+        <v>3.872E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16">
+        <v>0.8044</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16">
+        <v>3.9179999999999996E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17">
+        <v>0.8044</v>
+      </c>
+      <c r="E17" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>3.9760000000000004E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>0.8044</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18">
+        <v>4.0379999999999999E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>0.8044</v>
+      </c>
+      <c r="E19" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19">
+        <v>4.1000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20">
+        <v>0.8044</v>
+      </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20">
+        <v>4.1609999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D21">
+        <v>0.8044</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21">
+        <v>4.2269999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22">
+        <v>0.8044</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22">
+        <v>4.3070000000000001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23">
+        <v>0.8044</v>
+      </c>
+      <c r="E23" t="s">
+        <v>96</v>
+      </c>
+      <c r="F23">
+        <v>4.4010000000000004E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24">
+        <v>0.8044</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24">
+        <v>4.5100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25">
+        <v>0.8044</v>
+      </c>
+      <c r="E25" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25">
+        <v>4.6249999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26">
+        <v>0.8044</v>
+      </c>
+      <c r="E26" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26">
+        <v>4.7410000000000004E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27">
+        <v>0.8044</v>
+      </c>
+      <c r="E27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27">
+        <v>4.8479999999999999E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28">
+        <v>0.8044</v>
+      </c>
+      <c r="E28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28">
+        <v>4.9500000000000004E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29">
+        <v>0.8044</v>
+      </c>
+      <c r="E29" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29">
+        <v>5.0470000000000003E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30">
+        <v>0.8044</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30">
+        <v>5.1409999999999997E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31">
+        <v>0.8044</v>
+      </c>
+      <c r="E31" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31">
+        <v>5.2300000000000003E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32">
+        <v>0.8044</v>
+      </c>
+      <c r="E32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32">
+        <v>5.3080000000000002E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C33" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33">
+        <v>0.8044</v>
+      </c>
+      <c r="E33" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33">
+        <v>5.3670000000000002E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>0.8044</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>5.3990000000000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>95</v>
+      </c>
+      <c r="D35">
+        <v>0.8044</v>
+      </c>
+      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="F35">
+        <v>5.4029999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36">
+        <v>0.8044</v>
+      </c>
+      <c r="E36" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36">
+        <v>5.3800000000000002E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C37" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37">
+        <v>0.8044</v>
+      </c>
+      <c r="E37" t="s">
+        <v>96</v>
+      </c>
+      <c r="F37">
+        <v>5.3330000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>0.8044</v>
+      </c>
+      <c r="E38" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38">
+        <v>5.2659999999999998E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39">
+        <v>0.8044</v>
+      </c>
+      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="F39">
+        <v>5.182E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40">
+        <v>0.8044</v>
+      </c>
+      <c r="E40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>5.0819999999999997E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41">
+        <v>0.8044</v>
+      </c>
+      <c r="E41" t="s">
+        <v>96</v>
+      </c>
+      <c r="F41">
+        <v>4.9659999999999999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42">
+        <v>0.8044</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
+      </c>
+      <c r="F42">
+        <v>4.836E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>95</v>
+      </c>
+      <c r="D43">
+        <v>0.8044</v>
+      </c>
+      <c r="E43" t="s">
+        <v>96</v>
+      </c>
+      <c r="F43">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44">
+        <v>0.8044</v>
+      </c>
+      <c r="E44" t="s">
+        <v>96</v>
+      </c>
+      <c r="F44">
+        <v>4.5580000000000004E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45">
+        <v>0.8044</v>
+      </c>
+      <c r="E45" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45">
+        <v>4.4190000000000002E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>0.8044</v>
+      </c>
+      <c r="E46" t="s">
+        <v>96</v>
+      </c>
+      <c r="F46">
+        <v>4.2859999999999999E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47">
+        <v>0.8044</v>
+      </c>
+      <c r="E47" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47">
+        <v>4.1640000000000002E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48">
+        <v>0.8044</v>
+      </c>
+      <c r="E48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48">
+        <v>4.052E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49">
+        <v>0.8044</v>
+      </c>
+      <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49">
+        <v>3.9509999999999997E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>93</v>
+      </c>
+      <c r="B50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" t="s">
+        <v>95</v>
+      </c>
+      <c r="D50">
+        <v>0.8044</v>
+      </c>
+      <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50">
+        <v>3.8630000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C51" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51">
+        <v>0.8044</v>
+      </c>
+      <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51">
+        <v>3.7859999999999999E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+      <c r="D52">
+        <v>0.8044</v>
+      </c>
+      <c r="E52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52">
+        <v>3.7190000000000001E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53">
+        <v>0.8044</v>
+      </c>
+      <c r="E53" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53">
+        <v>3.6649999999999999E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>